--- a/Main Code/Data.xlsx
+++ b/Main Code/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FFFD2AF-ECE4-3A4B-B9F1-227C57E2C10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A802DCBC-26A6-8346-8999-6C682354A607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{FE450C5C-3C04-6E42-B508-B6D972D3473F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE450C5C-3C04-6E42-B508-B6D972D3473F}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassroomA" sheetId="5" r:id="rId1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742D8DD4-BC16-8B40-89F2-9453EE59B9E1}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -820,7 +820,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162F8557-ADDD-1F4A-A65D-BF53D417C0F5}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
